--- a/05 Test/ATD06 KontanteKapacitetsOmkostninger.xlsx
+++ b/05 Test/ATD06 KontanteKapacitetsOmkostninger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAE2375B-1FA7-4C0B-8B09-4A71969C8772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653AFD57-D83B-455D-ACB2-38589594B100}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{58D9CB81-63F2-467F-8A4C-D907134800B3}"/>
   </bookViews>
@@ -33,64 +33,217 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Tests til beregning af indtjeningsbidrag</t>
-  </si>
-  <si>
-    <t>Test Data</t>
-  </si>
-  <si>
-    <t>Beregning af Data</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Forventet output</t>
-  </si>
-  <si>
-    <t>TC1</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>KontanteKapacitetsOmkostninger=KKO</t>
-  </si>
-  <si>
-    <t>KKO=4.400</t>
-  </si>
-  <si>
-    <t>KKO(-)= 4.000*1.1</t>
-  </si>
-  <si>
-    <t>KKO(-)= -2.000</t>
-  </si>
-  <si>
-    <t>husleje(-)=1.000</t>
-  </si>
-  <si>
-    <t>varme(-)=800</t>
-  </si>
-  <si>
-    <t>KKO(-)=1.800</t>
-  </si>
-  <si>
-    <t>fejl, negativ værdi</t>
+    <t>forvented output</t>
+  </si>
+  <si>
+    <t>beskrivelse</t>
+  </si>
+  <si>
+    <t>tester for dobbelt negativ</t>
+  </si>
+  <si>
+    <t>KKO =</t>
+  </si>
+  <si>
+    <t>Kontante Kapacitet Omkostning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IKKO = </t>
+  </si>
+  <si>
+    <t>Individuelle KKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS = </t>
+  </si>
+  <si>
+    <t>BeløbMæssigt Stignnig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS = </t>
+  </si>
+  <si>
+    <t>Procent Stigning</t>
+  </si>
+  <si>
+    <t>Løn = 2.400</t>
+  </si>
+  <si>
+    <t>veligeholdelse = 500</t>
+  </si>
+  <si>
+    <t>test af sammenlæg af forskellige KKO'er</t>
+  </si>
+  <si>
+    <t>input (-)</t>
+  </si>
+  <si>
+    <t>Husleje= 1.000</t>
+  </si>
+  <si>
+    <t>alt i negativ, pga. det er en omkostning</t>
+  </si>
+  <si>
+    <t>KKO(-) = 2.900</t>
+  </si>
+  <si>
+    <t>Løn = -2.400</t>
+  </si>
+  <si>
+    <t>fejl, dobbelt negativ</t>
+  </si>
+  <si>
+    <t>Løn = Femten</t>
+  </si>
+  <si>
+    <t>String input i Løn</t>
+  </si>
+  <si>
+    <t>String input i husleje</t>
+  </si>
+  <si>
+    <t>løn = 12.000</t>
+  </si>
+  <si>
+    <t>Husleje= tusind</t>
+  </si>
+  <si>
+    <t>fejl, forkert datatype</t>
+  </si>
+  <si>
+    <t>husleje = a</t>
+  </si>
+  <si>
+    <t>løn = 8.000</t>
+  </si>
+  <si>
+    <t>char input i husleje</t>
+  </si>
+  <si>
+    <t>husleje = 1.000</t>
+  </si>
+  <si>
+    <t>løn = b</t>
+  </si>
+  <si>
+    <t>char input i løn</t>
+  </si>
+  <si>
+    <t>husleje = 1.250,95</t>
+  </si>
+  <si>
+    <t>double input i husleje</t>
+  </si>
+  <si>
+    <t>løn = 1.000</t>
+  </si>
+  <si>
+    <t>husleje = 1.500</t>
+  </si>
+  <si>
+    <t>løn = 750.55</t>
+  </si>
+  <si>
+    <t>double input i løn</t>
+  </si>
+  <si>
+    <t>KKO(-) =2250,95</t>
+  </si>
+  <si>
+    <t>KKO(-) =2250,55</t>
+  </si>
+  <si>
+    <t>KKO(-) = 10.000</t>
+  </si>
+  <si>
+    <t>PS = 4</t>
+  </si>
+  <si>
+    <t>KKO(-) = 10.400</t>
+  </si>
+  <si>
+    <t>test af procent Stigning af KKO</t>
+  </si>
+  <si>
+    <t>KKO(-) = 12.000</t>
+  </si>
+  <si>
+    <t>BMS = 500</t>
+  </si>
+  <si>
+    <t>KKO(-) = 12.500</t>
+  </si>
+  <si>
+    <t>KKO(-) = 2.500</t>
+  </si>
+  <si>
+    <t>KKO(-) = 2540</t>
+  </si>
+  <si>
+    <t>test af IKKO (husleje) procent stigning</t>
+  </si>
+  <si>
+    <t>Løn = 500</t>
+  </si>
+  <si>
+    <t>løn + BMS =400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">husleje = 1.000 </t>
+  </si>
+  <si>
+    <t>husleje + ps =4</t>
+  </si>
+  <si>
+    <t>test af IKKO (løn) beløb mæssigt stigning</t>
+  </si>
+  <si>
+    <t>test af Beløb mæssig stigning</t>
+  </si>
+  <si>
+    <t>husleje + ps =-10</t>
+  </si>
+  <si>
+    <t>KKO(-) = 2.400</t>
+  </si>
+  <si>
+    <t>test af IKKO (husleje) negativ PS</t>
+  </si>
+  <si>
+    <t>KKO(-) = 2.750</t>
+  </si>
+  <si>
+    <t>løn = 750</t>
+  </si>
+  <si>
+    <t>løn - BMS =400</t>
+  </si>
+  <si>
+    <t>test af IKKO (løn ) negativ beløb mæssig stigning</t>
+  </si>
+  <si>
+    <t>KKO(-) = 2.350</t>
+  </si>
+  <si>
+    <t>KKO(-) = -10</t>
+  </si>
+  <si>
+    <t>fejl, Kko kan kun være over 0</t>
+  </si>
+  <si>
+    <t>test af negativ KKO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,16 +251,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -119,12 +292,19 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -134,10 +314,84 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -146,100 +400,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -247,28 +407,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{F2C9A7D8-0EAC-4D39-944F-A2DFEB9BAC42}"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -580,102 +749,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3702BE89-4926-46AC-8299-5F7DCA5CD09E}">
-  <dimension ref="A2:C11"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
     <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="14"/>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="16"/>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="14" t="s">
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="13" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
+      <c r="B37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="15"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
